--- a/src/data/raw/islands.xlsx
+++ b/src/data/raw/islands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\src\data\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\src\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3DBF19-6AD8-4F4A-B050-9FBD2E057409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4E9A9C-79CF-405A-AEA7-0A5548C3D81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2730" windowWidth="21450" windowHeight="11280" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
+    <workbookView xWindow="4410" yWindow="2730" windowWidth="21450" windowHeight="11280" activeTab="2" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
   </bookViews>
   <sheets>
     <sheet name="KOR" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="290">
   <si>
     <t>Cannon Cove</t>
   </si>
@@ -971,10 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>English Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>닭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,18 +983,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wanderer's Refuge</t>
-  </si>
-  <si>
-    <t>Chicken Isle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thieves' Haven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Sunken Grove</t>
+    <t>Smuggler's Bay</t>
+  </si>
+  <si>
+    <t>Cannon Cove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,12 +1061,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,9 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6851CCB6-8444-484D-BD9F-A7B9156DF748}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1384,25 +1401,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1456,7 +1473,7 @@
       </c>
       <c r="G3">
         <f>COUNTIF(animals!C:C,KOR!$D3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,7 +1500,7 @@
       </c>
       <c r="G4">
         <f>COUNTIF(animals!C:C,KOR!$D4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1502,7 +1519,7 @@
       </c>
       <c r="E5">
         <f>COUNTIF(animals!A:A,KOR!$D5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>COUNTIF(animals!B:B,KOR!$D5)</f>
@@ -1583,7 +1600,7 @@
       </c>
       <c r="E8">
         <f>COUNTIF(animals!A:A,KOR!$D8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f>COUNTIF(animals!B:B,KOR!$D8)</f>
@@ -1961,7 +1978,7 @@
       </c>
       <c r="E22">
         <f>COUNTIF(animals!A:A,KOR!$D22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f>COUNTIF(animals!B:B,KOR!$D22)</f>
@@ -2077,7 +2094,7 @@
       </c>
       <c r="G26">
         <f>COUNTIF(animals!C:C,KOR!$D26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2127,7 +2144,7 @@
       </c>
       <c r="F28">
         <f>COUNTIF(animals!B:B,KOR!$D28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <f>COUNTIF(animals!C:C,KOR!$D28)</f>
@@ -2285,7 +2302,7 @@
       </c>
       <c r="E34">
         <f>COUNTIF(animals!A:A,KOR!$D34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <f>COUNTIF(animals!B:B,KOR!$D34)</f>
@@ -2316,7 +2333,7 @@
       </c>
       <c r="F35">
         <f>COUNTIF(animals!B:B,KOR!$D35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f>COUNTIF(animals!C:C,KOR!$D35)</f>
@@ -2339,7 +2356,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(animals!A:A,KOR!$D36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <f>COUNTIF(animals!B:B,KOR!$D36)</f>
@@ -2347,7 +2364,7 @@
       </c>
       <c r="G36">
         <f>COUNTIF(animals!C:C,KOR!$D36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2393,11 +2410,11 @@
       </c>
       <c r="E38">
         <f>COUNTIF(animals!A:A,KOR!$D38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <f>COUNTIF(animals!B:B,KOR!$D38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <f>COUNTIF(animals!C:C,KOR!$D38)</f>
@@ -2424,7 +2441,7 @@
       </c>
       <c r="F39">
         <f>COUNTIF(animals!B:B,KOR!$D39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <f>COUNTIF(animals!C:C,KOR!$D39)</f>
@@ -2455,7 +2472,7 @@
       </c>
       <c r="G40">
         <f>COUNTIF(animals!C:C,KOR!$D40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2586,7 +2603,7 @@
       </c>
       <c r="F45">
         <f>COUNTIF(animals!B:B,KOR!$D45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <f>COUNTIF(animals!C:C,KOR!$D45)</f>
@@ -2644,7 +2661,7 @@
       </c>
       <c r="G47">
         <f>COUNTIF(animals!C:C,KOR!$D47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2744,7 +2761,7 @@
       </c>
       <c r="E51">
         <f>COUNTIF(animals!A:A,KOR!$D51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <f>COUNTIF(animals!B:B,KOR!$D51)</f>
@@ -2806,7 +2823,7 @@
       </c>
       <c r="G53">
         <f>COUNTIF(animals!C:C,KOR!$D53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2960,7 +2977,7 @@
       </c>
       <c r="E59">
         <f>COUNTIF(animals!A:A,KOR!$D59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <f>COUNTIF(animals!B:B,KOR!$D59)</f>
@@ -3018,7 +3035,7 @@
       </c>
       <c r="F61">
         <f>COUNTIF(animals!B:B,KOR!$D61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <f>COUNTIF(animals!C:C,KOR!$D61)</f>
@@ -3045,7 +3062,7 @@
       </c>
       <c r="F62">
         <f>COUNTIF(animals!B:B,KOR!$D62)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <f>COUNTIF(animals!C:C,KOR!$D62)</f>
@@ -3149,11 +3166,11 @@
       </c>
       <c r="E66">
         <f>COUNTIF(animals!A:A,KOR!$D66)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <f>COUNTIF(animals!B:B,KOR!$D66)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <f>COUNTIF(animals!C:C,KOR!$D66)</f>
@@ -3211,7 +3228,7 @@
       </c>
       <c r="G68">
         <f>COUNTIF(animals!C:C,KOR!$D68)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3346,7 +3363,7 @@
       </c>
       <c r="G73">
         <f>COUNTIF(animals!C:C,KOR!$D73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3454,7 +3471,7 @@
       </c>
       <c r="G77">
         <f>COUNTIF(animals!C:C,KOR!$D77)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3635,11 +3652,11 @@
       </c>
       <c r="E84">
         <f>COUNTIF(animals!A:A,KOR!$D84)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <f>COUNTIF(animals!B:B,KOR!$D84)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <f>COUNTIF(animals!C:C,KOR!$D84)</f>
@@ -3693,7 +3710,7 @@
       </c>
       <c r="F86">
         <f>COUNTIF(animals!B:B,KOR!$D86)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <f>COUNTIF(animals!C:C,KOR!$D86)</f>
@@ -3849,9 +3866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31022AB5-5C9B-4610-9CA1-E66D9416B4E0}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4869,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E386888C-1343-46FB-89DA-59065650E3AA}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4882,203 +4897,287 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
         <v>279</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>280</v>
-      </c>
-      <c r="C1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>285</v>
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>282</v>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C23">
+    <sortCondition ref="C2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="Blind Man's Lagoon" display="https://seaofthieves.gamepedia.com/Blind_Man%27s_Lagoon" xr:uid="{6C4B50EC-DB0B-40B1-AB4A-EBF1863FABA1}"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="Cannon Cove" display="https://seaofthieves.gamepedia.com/Cannon_Cove" xr:uid="{E8683BB2-AA92-4BCA-A956-C7F02C73AB5F}"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="Crescent Isle" display="https://seaofthieves.gamepedia.com/Crescent_Isle" xr:uid="{19E4ABA2-A279-49A0-8EEF-2D19CFC136D4}"/>
-    <hyperlink ref="B5" r:id="rId4" tooltip="Devil's Ridge" display="https://seaofthieves.gamepedia.com/Devil%27s_Ridge" xr:uid="{8EAE2468-237A-4D12-8754-82A15D23F4BF}"/>
-    <hyperlink ref="B6" r:id="rId5" tooltip="Kraken's Fall" display="https://seaofthieves.gamepedia.com/Kraken%27s_Fall" xr:uid="{4444D3AE-16F9-4575-A0C3-9473F45C7699}"/>
-    <hyperlink ref="B7" r:id="rId6" tooltip="Lone Cove" display="https://seaofthieves.gamepedia.com/Lone_Cove" xr:uid="{066D3893-16FE-4907-B3CC-8E510733C866}"/>
-    <hyperlink ref="B8" r:id="rId7" tooltip="Old Faithful Isle" display="https://seaofthieves.gamepedia.com/Old_Faithful_Isle" xr:uid="{D9AF71D3-3A3C-4CFE-A5DB-6DEBE93E0047}"/>
-    <hyperlink ref="B9" r:id="rId8" tooltip="Paradise Spring" display="https://seaofthieves.gamepedia.com/Paradise_Spring" xr:uid="{6586ACCE-4262-4797-828B-D8BB559AB7FB}"/>
-    <hyperlink ref="B10" r:id="rId9" tooltip="Rum Runner Isle" display="https://seaofthieves.gamepedia.com/Rum_Runner_Isle" xr:uid="{05B968E2-4741-40E0-91CA-C59DE41CC4D6}"/>
-    <hyperlink ref="B11" r:id="rId10" tooltip="Sea Dog's Rest" display="https://seaofthieves.gamepedia.com/Sea_Dog%27s_Rest" xr:uid="{55713785-7589-4546-88F5-F9B3AD2047B4}"/>
-    <hyperlink ref="B12" r:id="rId11" tooltip="Shark Bait Cove" display="https://seaofthieves.gamepedia.com/Shark_Bait_Cove" xr:uid="{00167F0D-170E-465C-AC4C-74939BE09738}"/>
-    <hyperlink ref="B13" r:id="rId12" tooltip="Shipwreck Bay" display="https://seaofthieves.gamepedia.com/Shipwreck_Bay" xr:uid="{313F0476-3E40-43F1-8F00-E9501D47A5BE}"/>
-    <hyperlink ref="B14" r:id="rId13" tooltip="Snake Island" display="https://seaofthieves.gamepedia.com/Snake_Island" xr:uid="{ACCF0923-8F88-46FA-B136-2F108EA76066}"/>
-    <hyperlink ref="B15" r:id="rId14" tooltip="The Sunken Grove" display="https://seaofthieves.gamepedia.com/The_Sunken_Grove" xr:uid="{8B554C6A-C2FA-486D-9C4C-17464C9F4A9B}"/>
-    <hyperlink ref="B16" r:id="rId15" tooltip="Thieves' Haven" display="https://seaofthieves.gamepedia.com/Thieves%27_Haven" xr:uid="{DB8D9F3A-A18C-4397-936E-77D493C99A66}"/>
-    <hyperlink ref="C2" r:id="rId16" tooltip="The Crooked Masts" display="https://seaofthieves.gamepedia.com/The_Crooked_Masts" xr:uid="{730BC6DF-D334-4523-8276-FD24155883F1}"/>
-    <hyperlink ref="C3" r:id="rId17" tooltip="Crescent Isle" display="https://seaofthieves.gamepedia.com/Crescent_Isle" xr:uid="{3C4D7FF2-500F-45F0-91A2-F3D9720F7443}"/>
-    <hyperlink ref="C4" r:id="rId18" tooltip="Devil's Ridge" display="https://seaofthieves.gamepedia.com/Devil%27s_Ridge" xr:uid="{F4D8B029-6ADA-4790-88F7-D5BD86AF9A78}"/>
-    <hyperlink ref="C5" r:id="rId19" tooltip="Discovery Ridge" display="https://seaofthieves.gamepedia.com/Discovery_Ridge" xr:uid="{D03ACA9E-7A51-4EAE-B95C-9FDB258BDF7E}"/>
-    <hyperlink ref="C6" r:id="rId20" tooltip="Kraken's Fall" display="https://seaofthieves.gamepedia.com/Kraken%27s_Fall" xr:uid="{4969B8F6-3E44-4569-AB07-BEE06191D310}"/>
-    <hyperlink ref="C7" r:id="rId21" tooltip="Isle of Last Words" display="https://seaofthieves.gamepedia.com/Isle_of_Last_Words" xr:uid="{7D37B48D-6EEC-4606-B992-0DFA800EA4D2}"/>
-    <hyperlink ref="C8" r:id="rId22" tooltip="Lone Cove" display="https://seaofthieves.gamepedia.com/Lone_Cove" xr:uid="{7DAD84AB-10E0-46F2-8EB8-E7FB3C44EFC3}"/>
-    <hyperlink ref="C9" r:id="rId23" tooltip="Marauder's Arch" display="https://seaofthieves.gamepedia.com/Marauder%27s_Arch" xr:uid="{1502E7D5-8F8D-462D-933C-BD994394D06F}"/>
-    <hyperlink ref="C10" r:id="rId24" tooltip="Picaroon Palms" display="https://seaofthieves.gamepedia.com/Picaroon_Palms" xr:uid="{13807CA3-E38D-41DF-9D00-25BD52349277}"/>
-    <hyperlink ref="C11" r:id="rId25" tooltip="Snake Island" display="https://seaofthieves.gamepedia.com/Snake_Island" xr:uid="{F1A52A68-7B00-44E2-8636-E4B4241D9B30}"/>
-    <hyperlink ref="C12" r:id="rId26" tooltip="The Sunken Grove" display="https://seaofthieves.gamepedia.com/The_Sunken_Grove" xr:uid="{35D38544-1FDC-4921-8776-6FFCFE3EC7C2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>